--- a/actionable_data/Objective sleep quality.xlsx
+++ b/actionable_data/Objective sleep quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\HRV\HRV-EDA\actionable_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711E45A1-D422-480B-AD22-9EBC1BFA50F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5EF3A1-97B1-4586-A74E-CC8A4705E21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="4" r:id="rId1"/>

--- a/actionable_data/Objective sleep quality.xlsx
+++ b/actionable_data/Objective sleep quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\HRV\HRV-EDA\actionable_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5EF3A1-97B1-4586-A74E-CC8A4705E21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF8A5EF-B3A9-4035-8E6E-8AE83A74963C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="4" r:id="rId1"/>

--- a/actionable_data/Objective sleep quality.xlsx
+++ b/actionable_data/Objective sleep quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\HRV\HRV-EDA\actionable_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF8A5EF-B3A9-4035-8E6E-8AE83A74963C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68C613C-2FF1-4FC6-9987-1E15FFA01124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/actionable_data/Objective sleep quality.xlsx
+++ b/actionable_data/Objective sleep quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\HRV\HRV-EDA\actionable_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68C613C-2FF1-4FC6-9987-1E15FFA01124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEB2214-34FC-4BD1-B784-C7A2A1DB7270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/actionable_data/Objective sleep quality.xlsx
+++ b/actionable_data/Objective sleep quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\HRV\HRV-EDA\actionable_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEB2214-34FC-4BD1-B784-C7A2A1DB7270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E62055-0901-4BF9-A23B-C034E444B2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/actionable_data/Objective sleep quality.xlsx
+++ b/actionable_data/Objective sleep quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\HRV\HRV-EDA\actionable_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E62055-0901-4BF9-A23B-C034E444B2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18B6773-C510-4221-90D6-4B1D22E18791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/actionable_data/Objective sleep quality.xlsx
+++ b/actionable_data/Objective sleep quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\HRV\HRV-EDA\actionable_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18B6773-C510-4221-90D6-4B1D22E18791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120029F6-CF09-40BB-B71A-E689A7764FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/actionable_data/Objective sleep quality.xlsx
+++ b/actionable_data/Objective sleep quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\HRV\HRV-EDA\actionable_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120029F6-CF09-40BB-B71A-E689A7764FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AFC383-CF06-4E56-B9E4-197C167DC327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/actionable_data/Objective sleep quality.xlsx
+++ b/actionable_data/Objective sleep quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\HRV\HRV-EDA\actionable_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AFC383-CF06-4E56-B9E4-197C167DC327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE06FE26-98B2-4367-87F6-C0DC2227C910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
